--- a/ig/ch-epreg/StructureDefinition-ch-epreg-patient-child.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-patient-child.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6256" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6019" uniqueCount="708">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -475,6 +475,10 @@
     <t>The registered place of birth of the patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
@@ -494,10 +498,6 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -530,7 +530,7 @@
     <t>religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-religion|5.2.0}
+    <t xml:space="preserve">Extension {patient-religion|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -757,7 +757,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -854,7 +854,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1839,7 +1839,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2069,8 +2069,7 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -2134,36 +2133,6 @@
   </si>
   <si>
     <t>PID-15</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Patient.generalPractitioner</t>
@@ -2173,7 +2142,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2244,7 +2213,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2579,7 +2548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ159"/>
+  <dimension ref="A1:AQ153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2588,9 +2557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2613,7 +2582,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3835,7 +3804,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3844,7 +3813,7 @@
         <v>84</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>84</v>
@@ -3864,13 +3833,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3892,13 +3861,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3958,7 +3927,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -4081,7 +4050,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>161</v>
@@ -4204,7 +4173,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>142</v>
@@ -9386,7 +9355,7 @@
         <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>142</v>
@@ -11348,7 +11317,7 @@
         <v>83</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>142</v>
@@ -13310,7 +13279,7 @@
         <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>142</v>
@@ -19826,14 +19795,16 @@
         <v>84</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AC140" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD140" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>647</v>
@@ -19854,7 +19825,7 @@
         <v>84</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>84</v>
+        <v>652</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>653</v>
@@ -20496,20 +20467,18 @@
         <v>674</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C146" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>84</v>
@@ -20521,20 +20490,18 @@
         <v>84</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>560</v>
+        <v>676</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>84</v>
       </c>
@@ -20582,7 +20549,7 @@
         <v>84</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>82</v>
@@ -20600,19 +20567,19 @@
         <v>84</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>677</v>
+        <v>84</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>654</v>
+        <v>207</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP146" t="s" s="2">
-        <v>84</v>
+        <v>681</v>
       </c>
       <c r="AQ146" t="s" s="2">
         <v>84</v>
@@ -20620,10 +20587,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20643,19 +20610,23 @@
         <v>84</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>204</v>
+        <v>683</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>84</v>
       </c>
@@ -20703,7 +20674,7 @@
         <v>84</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>206</v>
+        <v>682</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>82</v>
@@ -20715,7 +20686,7 @@
         <v>84</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>84</v>
@@ -20724,10 +20695,10 @@
         <v>84</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>207</v>
+        <v>610</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>84</v>
+        <v>687</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>84</v>
@@ -20741,14 +20712,14 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -20761,24 +20732,26 @@
         <v>84</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>136</v>
+        <v>560</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>210</v>
+        <v>689</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>211</v>
+        <v>690</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O148" s="2"/>
+        <v>691</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>84</v>
       </c>
@@ -20826,7 +20799,7 @@
         <v>84</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>213</v>
+        <v>688</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>82</v>
@@ -20838,7 +20811,7 @@
         <v>84</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>84</v>
@@ -20847,10 +20820,10 @@
         <v>84</v>
       </c>
       <c r="AM148" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AN148" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>84</v>
@@ -20864,46 +20837,42 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>657</v>
+        <v>694</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>571</v>
+        <v>84</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>572</v>
+        <v>204</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>84</v>
       </c>
@@ -20951,19 +20920,19 @@
         <v>84</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>574</v>
+        <v>206</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>84</v>
@@ -20972,7 +20941,7 @@
         <v>84</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>84</v>
@@ -20989,21 +20958,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>658</v>
+        <v>695</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>84</v>
@@ -21015,20 +20984,18 @@
         <v>84</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>659</v>
+        <v>210</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>660</v>
+        <v>211</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>662</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>84</v>
       </c>
@@ -21052,13 +21019,13 @@
         <v>84</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>84</v>
@@ -21076,19 +21043,19 @@
         <v>84</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>658</v>
+        <v>213</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>84</v>
@@ -21097,16 +21064,16 @@
         <v>84</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>663</v>
+        <v>207</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>664</v>
+        <v>84</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP150" t="s" s="2">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="AQ150" t="s" s="2">
         <v>84</v>
@@ -21114,52 +21081,52 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>84</v>
+        <v>571</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>293</v>
+        <v>136</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>667</v>
+        <v>572</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>668</v>
+        <v>573</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>669</v>
+        <v>173</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>670</v>
+        <v>174</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>683</v>
+        <v>84</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>84</v>
@@ -21201,19 +21168,19 @@
         <v>84</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI151" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>84</v>
@@ -21222,16 +21189,16 @@
         <v>84</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>671</v>
+        <v>134</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="AO151" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>673</v>
+        <v>84</v>
       </c>
       <c r="AQ151" t="s" s="2">
         <v>84</v>
@@ -21239,21 +21206,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>685</v>
+        <v>84</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>84</v>
@@ -21262,19 +21229,19 @@
         <v>84</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21324,13 +21291,13 @@
         <v>84</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>84</v>
@@ -21345,7 +21312,7 @@
         <v>84</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>690</v>
+        <v>182</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>207</v>
@@ -21354,7 +21321,7 @@
         <v>84</v>
       </c>
       <c r="AP152" t="s" s="2">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="AQ152" t="s" s="2">
         <v>84</v>
@@ -21362,10 +21329,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21373,7 +21340,7 @@
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>91</v>
@@ -21388,20 +21355,16 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>696</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>84</v>
       </c>
@@ -21425,13 +21388,13 @@
         <v>84</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>84</v>
+        <v>705</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>84</v>
+        <v>706</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>84</v>
@@ -21449,10 +21412,10 @@
         <v>84</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>91</v>
@@ -21470,10 +21433,10 @@
         <v>84</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>610</v>
+        <v>707</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>697</v>
+        <v>207</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>84</v>
@@ -21482,744 +21445,6 @@
         <v>84</v>
       </c>
       <c r="AQ153" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q154" s="2"/>
-      <c r="R154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AN154" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AO154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP154" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ154" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="C155" s="2"/>
-      <c r="D155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q155" s="2"/>
-      <c r="R155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ155" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q156" s="2"/>
-      <c r="R156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ156" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q157" s="2"/>
-      <c r="R157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ157" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q158" s="2"/>
-      <c r="R158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AQ158" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q159" s="2"/>
-      <c r="R159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP159" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ159" t="s" s="2">
         <v>84</v>
       </c>
     </row>
